--- a/expected_output/expected_output.xlsx
+++ b/expected_output/expected_output.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="weekly" sheetId="1" r:id="rId1"/>
+    <sheet name="draft" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +43,18 @@
   </si>
   <si>
     <t>tensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_borrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -744,4 +757,894 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>B2/SUM(B$2:B$21)</f>
+        <v>7.418397626112759E-2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:H17" si="0">C2/SUM(C$2:C$21)</f>
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>5.8315334773218146E-2</v>
+      </c>
+      <c r="J2">
+        <f>F2/F$23</f>
+        <v>1.4836795252225516</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:L17" si="1">G2/G$23</f>
+        <v>0.87912087912087911</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>1.1663066954643628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="2">B3/SUM(B$2:B$21)</f>
+        <v>0.10014836795252226</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.17032967032967034</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>7.5593952483801297E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J23" si="3">F3/F$23</f>
+        <v>2.0029673590504449</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>3.4065934065934065</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>1.5118790496760259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>5.4154302670623149E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>9.3406593406593408E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>5.6155507559395246E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>1.0830860534124629</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.8681318681318682</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1.1231101511879049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>5.3412462908011868E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>5.3995680345572353E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1.0682492581602372</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.54945054945054939</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1.079913606911447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2.5222551928783383E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3.4557235421166309E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.50445103857566764</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.87912087912087911</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.69114470842332609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>5.7863501483679525E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>5.8315334773218146E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>1.1572700296735905</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.98901098901098894</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.1663066954643628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>5.2670623145400594E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.6483516483516484E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>4.7516198704103674E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>1.0534124629080117</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.32967032967032966</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.95032397408207347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2.8189910979228485E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5.4945054945054949E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.9676025917926567E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.56379821958456966</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.10989010989010989</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.99352051835853128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>4.0059347181008904E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4.1036717062634988E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.80118694362017806</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.82073434125269973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2.7448071216617211E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.6717062634989202E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.54896142433234418</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.54945054945054939</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.73434125269978401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>3.5608308605341248E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4.5356371490280781E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.71216617210682487</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.65934065934065933</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.90712742980561556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>4.0059347181008904E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>6.0475161987041039E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.80118694362017806</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1.2095032397408207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>5.2670623145400594E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>6.0475161987041039E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1.0534124629080117</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.65934065934065933</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1.2095032397408207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3.9317507418397624E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4.3196544276457881E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.78635014836795247</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.54945054945054939</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.86393088552915753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>4.9703264094955492E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>5.8315334773218146E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.99406528189910981</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.98901098901098894</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1.1663066954643628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>5.7121661721068251E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>5.183585313174946E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1.142433234421365</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1.3186813186813187</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1.0367170626349891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>6.2314540059347182E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G21" si="4">C18/SUM(C$2:C$21)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H21" si="5">D18/SUM(D$2:D$21)</f>
+        <v>5.183585313174946E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.2462908011869436</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K23" si="6">G18/G$23</f>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L23" si="7">H18/H$23</f>
+        <v>1.0367170626349891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>3.3382789317507419E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>1.6483516483516484E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>3.0237580993520519E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.66765578635014833</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>0.32967032967032966</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>0.60475161987041037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3.857566765578635E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>3.6717062634989202E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.771513353115727</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>1.2087912087912087</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>0.73434125269978401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>7.7893175074183973E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>8.7912087912087919E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>4.9676025917926567E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1.5578635014836795</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>1.7582417582417582</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>0.99352051835853128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(B2:B21)</f>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:D23" si="8">AVERAGE(C2:C21)</f>
+        <v>9.1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>23.15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F2:F21)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:H23" si="9">AVERAGE(G2:G21)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23" si="10">G23/G$23</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23" si="11">H23/H$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f>B23/$B$23</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:D24" si="12">C23/$B$23</f>
+        <v>0.1350148367952522</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="12"/>
+        <v>0.34347181008902072</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>draft!B2:B21</xm:f>
+              <xm:sqref>B22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>draft!C2:C21</xm:f>
+              <xm:sqref>C22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>draft!D2:D21</xm:f>
+              <xm:sqref>D22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/expected_output/expected_output.xlsx
+++ b/expected_output/expected_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="weekly" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -688,74 +688,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <f>AVERAGE(B2:B21)</f>
-        <v>67.400000000000006</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:D23" si="0">AVERAGE(C2:C21)</f>
-        <v>9.1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>23.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <f>B23/$B$23</f>
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:D24" si="1">C23/$B$23</f>
-        <v>0.1350148367952522</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0.34347181008902072</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>weekly!B2:B21</xm:f>
-              <xm:sqref>B22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>weekly!C2:C21</xm:f>
-              <xm:sqref>C22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>weekly!D2:D21</xm:f>
-              <xm:sqref>D22</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -763,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -1430,11 +1366,11 @@
         <v>1.2462908011869436</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K23" si="6">G18/G$23</f>
+        <f t="shared" ref="K18:K21" si="6">G18/G$23</f>
         <v>1.4285714285714284</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L23" si="7">H18/H$23</f>
+        <f t="shared" ref="L18:L21" si="7">H18/H$23</f>
         <v>1.0367170626349891</v>
       </c>
     </row>

--- a/expected_output/expected_output.xlsx
+++ b/expected_output/expected_output.xlsx
@@ -1,92 +1,487 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="weekly" sheetId="1" r:id="rId1"/>
     <sheet name="draft" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>borrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book4</t>
   </si>
   <si>
     <t>borrower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_borrow</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>ww1</t>
+  </si>
+  <si>
+    <t>ww2</t>
+  </si>
+  <si>
+    <t>ww3</t>
+  </si>
+  <si>
+    <t>ww4</t>
+  </si>
+  <si>
+    <t>ww5</t>
+  </si>
+  <si>
+    <t>ww6</t>
+  </si>
+  <si>
+    <t>ww7</t>
+  </si>
+  <si>
+    <t>ww8</t>
+  </si>
+  <si>
+    <t>ww9</t>
+  </si>
+  <si>
+    <t>ww10</t>
+  </si>
+  <si>
+    <t>ww11</t>
+  </si>
+  <si>
+    <t>ww12</t>
+  </si>
+  <si>
+    <t>ww13</t>
+  </si>
+  <si>
+    <t>ww14</t>
+  </si>
+  <si>
+    <t>ww15</t>
+  </si>
+  <si>
+    <t>ww16</t>
+  </si>
+  <si>
+    <t>ww17</t>
+  </si>
+  <si>
+    <t>ww18</t>
+  </si>
+  <si>
+    <t>ww19</t>
+  </si>
+  <si>
+    <t>ww20</t>
   </si>
   <si>
     <t>avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_borrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -94,9 +489,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -104,17 +741,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -198,7 +879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -372,29 +1053,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -422,7 +1098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -436,7 +1112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -450,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -464,7 +1140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -478,7 +1154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -492,7 +1168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -506,7 +1182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -520,7 +1196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -534,7 +1210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -548,7 +1224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -562,7 +1238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -576,7 +1252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -590,7 +1266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -604,7 +1280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -618,7 +1294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -632,7 +1308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -646,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -660,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -674,7 +1350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -689,26 +1365,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,19 +1393,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -743,30 +1426,36 @@
       </c>
       <c r="F2">
         <f>B2/SUM(B$2:B$21)</f>
-        <v>7.418397626112759E-2</v>
+        <v>0.0741839762611276</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:H17" si="0">C2/SUM(C$2:C$21)</f>
-        <v>4.3956043956043959E-2</v>
+        <v>0.043956043956044</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>5.8315334773218146E-2</v>
+        <v>0.0583153347732181</v>
       </c>
       <c r="J2">
         <f>F2/F$23</f>
-        <v>1.4836795252225516</v>
+        <v>1.48367952522255</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:L17" si="1">G2/G$23</f>
-        <v>0.87912087912087911</v>
+        <v>0.879120879120879</v>
       </c>
       <c r="L2">
         <f t="shared" si="1"/>
-        <v>1.1663066954643628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.16630669546436</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>1.48367952522255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -781,30 +1470,36 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F21" si="2">B3/SUM(B$2:B$21)</f>
-        <v>0.10014836795252226</v>
+        <v>0.100148367952522</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.17032967032967034</v>
+        <v>0.17032967032967</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>7.5593952483801297E-2</v>
+        <v>0.0755939524838013</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J23" si="3">F3/F$23</f>
-        <v>2.0029673590504449</v>
+        <v>2.00296735905044</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>3.4065934065934065</v>
+        <v>3.40659340659341</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>1.5118790496760259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.51187904967603</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>2.00296735905044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -819,30 +1514,36 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>5.4154302670623149E-2</v>
+        <v>0.0541543026706231</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>9.3406593406593408E-2</v>
+        <v>0.0934065934065934</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>5.6155507559395246E-2</v>
+        <v>0.0561555075593952</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>1.0830860534124629</v>
+        <v>1.08308605341246</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>1.8681318681318682</v>
+        <v>1.86813186813187</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.1231101511879049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.1231101511879</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>1.08308605341246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -857,30 +1558,36 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>5.3412462908011868E-2</v>
+        <v>0.0534124629080119</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2.7472527472527472E-2</v>
+        <v>0.0274725274725275</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>5.3995680345572353E-2</v>
+        <v>0.0539956803455724</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>1.0682492581602372</v>
+        <v>1.06824925816024</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>0.54945054945054939</v>
+        <v>0.549450549450549</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1.079913606911447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.07991360691145</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>1.06824925816024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -895,30 +1602,36 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>2.5222551928783383E-2</v>
+        <v>0.0252225519287834</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>4.3956043956043959E-2</v>
+        <v>0.043956043956044</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>3.4557235421166309E-2</v>
+        <v>0.0345572354211663</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.50445103857566764</v>
+        <v>0.504451038575668</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>0.87912087912087911</v>
+        <v>0.879120879120879</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0.69114470842332609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.691144708423326</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>0.504451038575668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -933,30 +1646,36 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>5.7863501483679525E-2</v>
+        <v>0.0578635014836795</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>4.9450549450549448E-2</v>
+        <v>0.0494505494505494</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>5.8315334773218146E-2</v>
+        <v>0.0583153347732181</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>1.1572700296735905</v>
+        <v>1.15727002967359</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>0.98901098901098894</v>
+        <v>0.989010989010989</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.1663066954643628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.16630669546436</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>1.15727002967359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -971,30 +1690,36 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>5.2670623145400594E-2</v>
+        <v>0.0526706231454006</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.6483516483516484E-2</v>
+        <v>0.0164835164835165</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>4.7516198704103674E-2</v>
+        <v>0.0475161987041037</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>1.0534124629080117</v>
+        <v>1.05341246290801</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>0.32967032967032966</v>
+        <v>0.32967032967033</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0.95032397408207347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.950323974082073</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>1.05341246290801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1009,30 +1734,36 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>2.8189910979228485E-2</v>
+        <v>0.0281899109792285</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>5.4945054945054949E-3</v>
+        <v>0.00549450549450549</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>4.9676025917926567E-2</v>
+        <v>0.0496760259179266</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>0.56379821958456966</v>
+        <v>0.56379821958457</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>0.10989010989010989</v>
+        <v>0.10989010989011</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0.99352051835853128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.993520518358531</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>0.56379821958457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1047,30 +1778,36 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>4.0059347181008904E-2</v>
+        <v>0.0400593471810089</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>4.1036717062634988E-2</v>
+        <v>0.041036717062635</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.80118694362017806</v>
+        <v>0.801186943620178</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>0.82073434125269973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.8207343412527</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>0.801186943620178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1085,30 +1822,36 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>2.7448071216617211E-2</v>
+        <v>0.0274480712166172</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>2.7472527472527472E-2</v>
+        <v>0.0274725274725275</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>3.6717062634989202E-2</v>
+        <v>0.0367170626349892</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>0.54896142433234418</v>
+        <v>0.548961424332344</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>0.54945054945054939</v>
+        <v>0.549450549450549</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>0.73434125269978401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.734341252699784</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11">
+        <v>0.548961424332344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1123,30 +1866,36 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>3.5608308605341248E-2</v>
+        <v>0.0356083086053412</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>3.2967032967032968E-2</v>
+        <v>0.032967032967033</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>4.5356371490280781E-2</v>
+        <v>0.0453563714902808</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.71216617210682487</v>
+        <v>0.712166172106825</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0.65934065934065933</v>
+        <v>0.659340659340659</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>0.90712742980561556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.907127429805616</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>0.712166172106825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1161,30 +1910,36 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>4.0059347181008904E-2</v>
+        <v>0.0400593471810089</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>6.0475161987041039E-2</v>
+        <v>0.060475161987041</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>0.80118694362017806</v>
+        <v>0.801186943620178</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1.2095032397408207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.20950323974082</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13">
+        <v>0.801186943620178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1199,30 +1954,36 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>5.2670623145400594E-2</v>
+        <v>0.0526706231454006</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>3.2967032967032968E-2</v>
+        <v>0.032967032967033</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>6.0475161987041039E-2</v>
+        <v>0.060475161987041</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.0534124629080117</v>
+        <v>1.05341246290801</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>0.65934065934065933</v>
+        <v>0.659340659340659</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.2095032397408207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.20950323974082</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>1.05341246290801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1237,30 +1998,36 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>3.9317507418397624E-2</v>
+        <v>0.0393175074183976</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>2.7472527472527472E-2</v>
+        <v>0.0274725274725275</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>4.3196544276457881E-2</v>
+        <v>0.0431965442764579</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>0.78635014836795247</v>
+        <v>0.786350148367952</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>0.54945054945054939</v>
+        <v>0.549450549450549</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.86393088552915753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.863930885529158</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>0.786350148367952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1275,30 +2042,36 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>4.9703264094955492E-2</v>
+        <v>0.0497032640949555</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4.9450549450549448E-2</v>
+        <v>0.0494505494505494</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>5.8315334773218146E-2</v>
+        <v>0.0583153347732181</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>0.99406528189910981</v>
+        <v>0.99406528189911</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>0.98901098901098894</v>
+        <v>0.989010989010989</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>1.1663066954643628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.16630669546436</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16">
+        <v>0.99406528189911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1313,30 +2086,36 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>5.7121661721068251E-2</v>
+        <v>0.0571216617210683</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>6.5934065934065936E-2</v>
+        <v>0.0659340659340659</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>5.183585313174946E-2</v>
+        <v>0.0518358531317495</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>1.142433234421365</v>
+        <v>1.14243323442137</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>1.3186813186813187</v>
+        <v>1.31868131868132</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>1.0367170626349891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.03671706263499</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17">
+        <v>1.14243323442137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1351,30 +2130,36 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>6.2314540059347182E-2</v>
+        <v>0.0623145400593472</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:G21" si="4">C18/SUM(C$2:C$21)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:H21" si="5">D18/SUM(D$2:D$21)</f>
-        <v>5.183585313174946E-2</v>
+        <v>0.0518358531317495</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>1.2462908011869436</v>
+        <v>1.24629080118694</v>
       </c>
       <c r="K18">
         <f t="shared" ref="K18:K21" si="6">G18/G$23</f>
-        <v>1.4285714285714284</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="L18">
         <f t="shared" ref="L18:L21" si="7">H18/H$23</f>
-        <v>1.0367170626349891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.03671706263499</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18">
+        <v>1.24629080118694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1389,30 +2174,36 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>3.3382789317507419E-2</v>
+        <v>0.0333827893175074</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>1.6483516483516484E-2</v>
+        <v>0.0164835164835165</v>
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
-        <v>3.0237580993520519E-2</v>
+        <v>0.0302375809935205</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>0.66765578635014833</v>
+        <v>0.667655786350148</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>0.32967032967032966</v>
+        <v>0.32967032967033</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>0.60475161987041037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.60475161987041</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <v>0.667655786350148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1427,15 +2218,15 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>3.857566765578635E-2</v>
+        <v>0.0385756676557863</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>6.043956043956044E-2</v>
+        <v>0.0604395604395604</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>3.6717062634989202E-2</v>
+        <v>0.0367170626349892</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -1443,14 +2234,20 @@
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1.2087912087912087</v>
+        <v>1.20879120879121</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>0.73434125269978401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.734341252699784</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20">
+        <v>0.771513353115727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1465,36 +2262,42 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>7.7893175074183973E-2</v>
+        <v>0.077893175074184</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>8.7912087912087919E-2</v>
+        <v>0.0879120879120879</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
-        <v>4.9676025917926567E-2</v>
+        <v>0.0496760259179266</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>1.5578635014836795</v>
+        <v>1.55786350148368</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1.7582417582417582</v>
+        <v>1.75824175824176</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>0.99352051835853128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.993520518358531</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21">
+        <v>1.55786350148368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <f>AVERAGE(B2:B21)</f>
-        <v>67.400000000000006</v>
+        <v>67.4</v>
       </c>
       <c r="C23">
         <f t="shared" ref="C23:D23" si="8">AVERAGE(C2:C21)</f>
@@ -1505,7 +2308,7 @@
         <v>23.15</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <f>AVERAGE(F2:F21)</f>
@@ -1532,9 +2335,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <f>B23/$B$23</f>
@@ -1542,16 +2345,16 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:D24" si="12">C23/$B$23</f>
-        <v>0.1350148367952522</v>
+        <v>0.135014836795252</v>
       </c>
       <c r="D24">
         <f t="shared" si="12"/>
-        <v>0.34347181008902072</v>
+        <v>0.343471810089021</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
